--- a/biology/Médecine/Astley_Paston_Cooper/Astley_Paston_Cooper.xlsx
+++ b/biology/Médecine/Astley_Paston_Cooper/Astley_Paston_Cooper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astley Paston Cooper (Brooke, 23 août 1768 - Londres, 12 février 1841) est un chirurgien et anatomiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Correspondant de l'Institut de France, chirurgien de l'hôpital Guy à Londres, enseignant à l'hôpital Saint-Thomas, il était le chirurgien ordinaire de George IV, de Guillaume IV et de la reine Victoria. 
 Il avait une telle clientèle et ses opérations étaient si onéreuses qu'à sa mort il laissa une formidable fortune. 
